--- a/dataset01.xlsx
+++ b/dataset01.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Study-Stuff\Work\Semester01\COS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6070E5F3-26D0-497C-8450-C1E91F4A1268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680298E-0931-4FF7-AAB6-9F583FE2C67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset01cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="964">
   <si>
     <t>title</t>
   </si>
@@ -2906,12 +2918,18 @@
   </si>
   <si>
     <t>$36,471,795</t>
+  </si>
+  <si>
+    <t>imdb_ratings_formatted</t>
+  </si>
+  <si>
+    <t>IMDB Rating Multiplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3451,6 +3469,1516 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataset01cleaned!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>metascore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>dataset01cleaned!$O$2:$O$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E374-4DEC-9A26-E2CFA34925AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dataset01cleaned!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>imdb_ratings_formatted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>dataset01cleaned!$T$2:$T$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E374-4DEC-9A26-E2CFA34925AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1818543695"/>
+        <c:axId val="1818531631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1818543695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818531631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1818531631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818543695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29500FFA-27E7-46B8-8B62-7A38481DBE61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3747,14 +5275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3812,8 +5342,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>962</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3871,8 +5404,18 @@
       <c r="S2" t="s">
         <v>32</v>
       </c>
+      <c r="T2">
+        <f>P2*$Y$2</f>
+        <v>74</v>
+      </c>
+      <c r="X2" t="s">
+        <v>963</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -3930,8 +5473,12 @@
       <c r="S3" t="s">
         <v>46</v>
       </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">P3*$Y$2</f>
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3989,8 +5536,12 @@
       <c r="S4" t="s">
         <v>54</v>
       </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4048,8 +5599,12 @@
       <c r="S5" t="s">
         <v>68</v>
       </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4107,8 +5662,12 @@
       <c r="S6" t="s">
         <v>54</v>
       </c>
+      <c r="T6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4166,8 +5725,12 @@
       <c r="S7" t="s">
         <v>54</v>
       </c>
+      <c r="T7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -4225,8 +5788,12 @@
       <c r="S8" t="s">
         <v>97</v>
       </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -4284,8 +5851,12 @@
       <c r="S9" t="s">
         <v>54</v>
       </c>
+      <c r="T9" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -4343,8 +5914,12 @@
       <c r="S10" t="s">
         <v>54</v>
       </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -4402,8 +5977,12 @@
       <c r="S11" t="s">
         <v>127</v>
       </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4461,8 +6040,12 @@
       <c r="S12" t="s">
         <v>54</v>
       </c>
+      <c r="T12" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -4520,8 +6103,12 @@
       <c r="S13" t="s">
         <v>54</v>
       </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -4579,8 +6166,12 @@
       <c r="S14" t="s">
         <v>155</v>
       </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -4638,8 +6229,12 @@
       <c r="S15" t="s">
         <v>165</v>
       </c>
+      <c r="T15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -4697,8 +6292,12 @@
       <c r="S16" t="s">
         <v>54</v>
       </c>
+      <c r="T16" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4756,8 +6355,12 @@
       <c r="S17" t="s">
         <v>180</v>
       </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>181</v>
       </c>
@@ -4815,8 +6418,12 @@
       <c r="S18" t="s">
         <v>192</v>
       </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -4874,8 +6481,12 @@
       <c r="S19" t="s">
         <v>54</v>
       </c>
+      <c r="T19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -4933,8 +6544,12 @@
       <c r="S20" t="s">
         <v>54</v>
       </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -4992,8 +6607,12 @@
       <c r="S21" t="s">
         <v>223</v>
       </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>224</v>
       </c>
@@ -5051,8 +6670,12 @@
       <c r="S22" t="s">
         <v>235</v>
       </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>236</v>
       </c>
@@ -5110,8 +6733,12 @@
       <c r="S23" t="s">
         <v>246</v>
       </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>247</v>
       </c>
@@ -5169,8 +6796,12 @@
       <c r="S24" t="s">
         <v>54</v>
       </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -5228,8 +6859,12 @@
       <c r="S25" t="s">
         <v>266</v>
       </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>267</v>
       </c>
@@ -5287,8 +6922,12 @@
       <c r="S26" t="s">
         <v>54</v>
       </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>278</v>
       </c>
@@ -5346,8 +6985,12 @@
       <c r="S27" t="s">
         <v>285</v>
       </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -5405,8 +7048,12 @@
       <c r="S28" t="s">
         <v>294</v>
       </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>295</v>
       </c>
@@ -5464,8 +7111,12 @@
       <c r="S29" t="s">
         <v>54</v>
       </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -5523,8 +7174,12 @@
       <c r="S30" t="s">
         <v>315</v>
       </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>316</v>
       </c>
@@ -5582,8 +7237,12 @@
       <c r="S31" t="s">
         <v>326</v>
       </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>327</v>
       </c>
@@ -5641,8 +7300,12 @@
       <c r="S32" t="s">
         <v>337</v>
       </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>338</v>
       </c>
@@ -5700,8 +7363,12 @@
       <c r="S33" t="s">
         <v>347</v>
       </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>348</v>
       </c>
@@ -5759,8 +7426,12 @@
       <c r="S34" t="s">
         <v>54</v>
       </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -5818,8 +7489,12 @@
       <c r="S35" t="s">
         <v>54</v>
       </c>
+      <c r="T35">
+        <f>P35*$Y$2</f>
+        <v>76</v>
+      </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>368</v>
       </c>
@@ -5877,8 +7552,12 @@
       <c r="S36" t="s">
         <v>379</v>
       </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>380</v>
       </c>
@@ -5936,8 +7615,12 @@
       <c r="S37" t="s">
         <v>54</v>
       </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>390</v>
       </c>
@@ -5995,8 +7678,12 @@
       <c r="S38" t="s">
         <v>54</v>
       </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>400</v>
       </c>
@@ -6054,8 +7741,12 @@
       <c r="S39" t="s">
         <v>410</v>
       </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>411</v>
       </c>
@@ -6113,8 +7804,12 @@
       <c r="S40" t="s">
         <v>54</v>
       </c>
+      <c r="T40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>419</v>
       </c>
@@ -6172,8 +7867,12 @@
       <c r="S41" t="s">
         <v>54</v>
       </c>
+      <c r="T41" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>425</v>
       </c>
@@ -6231,8 +7930,12 @@
       <c r="S42" t="s">
         <v>54</v>
       </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>434</v>
       </c>
@@ -6290,8 +7993,12 @@
       <c r="S43" t="s">
         <v>444</v>
       </c>
+      <c r="T43">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>445</v>
       </c>
@@ -6349,8 +8056,12 @@
       <c r="S44" t="s">
         <v>54</v>
       </c>
+      <c r="T44">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>456</v>
       </c>
@@ -6408,8 +8119,12 @@
       <c r="S45" t="s">
         <v>54</v>
       </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>463</v>
       </c>
@@ -6467,8 +8182,12 @@
       <c r="S46" t="s">
         <v>474</v>
       </c>
+      <c r="T46">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>475</v>
       </c>
@@ -6526,8 +8245,12 @@
       <c r="S47" t="s">
         <v>484</v>
       </c>
+      <c r="T47">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>485</v>
       </c>
@@ -6585,8 +8308,12 @@
       <c r="S48" t="s">
         <v>494</v>
       </c>
+      <c r="T48">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>495</v>
       </c>
@@ -6644,8 +8371,12 @@
       <c r="S49" t="s">
         <v>54</v>
       </c>
+      <c r="T49">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>506</v>
       </c>
@@ -6703,8 +8434,12 @@
       <c r="S50" t="s">
         <v>54</v>
       </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>515</v>
       </c>
@@ -6762,8 +8497,12 @@
       <c r="S51" t="s">
         <v>54</v>
       </c>
+      <c r="T51" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>523</v>
       </c>
@@ -6821,8 +8560,12 @@
       <c r="S52" t="s">
         <v>532</v>
       </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>533</v>
       </c>
@@ -6880,8 +8623,18 @@
       <c r="S53" t="s">
         <v>542</v>
       </c>
+      <c r="T53">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>543</v>
       </c>
@@ -6939,8 +8692,12 @@
       <c r="S55" t="s">
         <v>553</v>
       </c>
+      <c r="T55">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>554</v>
       </c>
@@ -6998,8 +8755,12 @@
       <c r="S56" t="s">
         <v>54</v>
       </c>
+      <c r="T56">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>566</v>
       </c>
@@ -7057,8 +8818,12 @@
       <c r="S57" t="s">
         <v>54</v>
       </c>
+      <c r="T57" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>573</v>
       </c>
@@ -7116,8 +8881,12 @@
       <c r="S58" t="s">
         <v>582</v>
       </c>
+      <c r="T58">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>583</v>
       </c>
@@ -7175,8 +8944,12 @@
       <c r="S59" t="s">
         <v>54</v>
       </c>
+      <c r="T59" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>590</v>
       </c>
@@ -7234,8 +9007,12 @@
       <c r="S60" t="s">
         <v>599</v>
       </c>
+      <c r="T60">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>600</v>
       </c>
@@ -7293,8 +9070,12 @@
       <c r="S61" t="s">
         <v>54</v>
       </c>
+      <c r="T61" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>606</v>
       </c>
@@ -7352,8 +9133,12 @@
       <c r="S62" t="s">
         <v>615</v>
       </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>616</v>
       </c>
@@ -7411,8 +9196,12 @@
       <c r="S63" t="s">
         <v>627</v>
       </c>
+      <c r="T63">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>628</v>
       </c>
@@ -7470,8 +9259,12 @@
       <c r="S64" t="s">
         <v>54</v>
       </c>
+      <c r="T64" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>638</v>
       </c>
@@ -7529,8 +9322,12 @@
       <c r="S65" t="s">
         <v>646</v>
       </c>
+      <c r="T65">
+        <f>P65*$Y$2</f>
+        <v>74</v>
+      </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>647</v>
       </c>
@@ -7588,8 +9385,12 @@
       <c r="S66" t="s">
         <v>54</v>
       </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>655</v>
       </c>
@@ -7647,8 +9448,12 @@
       <c r="S67" t="s">
         <v>54</v>
       </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T88" si="1">P67*$Y$2</f>
+        <v>33</v>
+      </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>666</v>
       </c>
@@ -7706,8 +9511,12 @@
       <c r="S68" t="s">
         <v>54</v>
       </c>
+      <c r="T68" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>674</v>
       </c>
@@ -7765,8 +9574,12 @@
       <c r="S69" t="s">
         <v>54</v>
       </c>
+      <c r="T69" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>679</v>
       </c>
@@ -7824,8 +9637,12 @@
       <c r="S70" t="s">
         <v>687</v>
       </c>
+      <c r="T70">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>688</v>
       </c>
@@ -7883,8 +9700,12 @@
       <c r="S71" t="s">
         <v>54</v>
       </c>
+      <c r="T71" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>694</v>
       </c>
@@ -7942,8 +9763,12 @@
       <c r="S72" t="s">
         <v>702</v>
       </c>
+      <c r="T72">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>703</v>
       </c>
@@ -8001,8 +9826,12 @@
       <c r="S73" t="s">
         <v>713</v>
       </c>
+      <c r="T73">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>714</v>
       </c>
@@ -8060,8 +9889,12 @@
       <c r="S74" t="s">
         <v>721</v>
       </c>
+      <c r="T74">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>722</v>
       </c>
@@ -8119,8 +9952,12 @@
       <c r="S75" t="s">
         <v>54</v>
       </c>
+      <c r="T75">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>730</v>
       </c>
@@ -8178,8 +10015,12 @@
       <c r="S76" t="s">
         <v>738</v>
       </c>
+      <c r="T76">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>156</v>
       </c>
@@ -8237,8 +10078,12 @@
       <c r="S77" t="s">
         <v>746</v>
       </c>
+      <c r="T77">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>747</v>
       </c>
@@ -8296,8 +10141,12 @@
       <c r="S78" t="s">
         <v>54</v>
       </c>
+      <c r="T78">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>756</v>
       </c>
@@ -8355,8 +10204,12 @@
       <c r="S79" t="s">
         <v>54</v>
       </c>
+      <c r="T79">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>765</v>
       </c>
@@ -8414,8 +10267,12 @@
       <c r="S80" t="s">
         <v>54</v>
       </c>
+      <c r="T80" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>773</v>
       </c>
@@ -8473,8 +10330,12 @@
       <c r="S81" t="s">
         <v>782</v>
       </c>
+      <c r="T81">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>783</v>
       </c>
@@ -8532,8 +10393,12 @@
       <c r="S82" t="s">
         <v>792</v>
       </c>
+      <c r="T82">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>793</v>
       </c>
@@ -8591,8 +10456,12 @@
       <c r="S83" t="s">
         <v>800</v>
       </c>
+      <c r="T83">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>801</v>
       </c>
@@ -8650,8 +10519,12 @@
       <c r="S84" t="s">
         <v>812</v>
       </c>
+      <c r="T84">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>813</v>
       </c>
@@ -8709,8 +10582,18 @@
       <c r="S85" t="s">
         <v>822</v>
       </c>
+      <c r="T85">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>823</v>
       </c>
@@ -8768,8 +10651,12 @@
       <c r="S87" t="s">
         <v>54</v>
       </c>
+      <c r="T87" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>830</v>
       </c>
@@ -8827,8 +10714,12 @@
       <c r="S88" t="s">
         <v>839</v>
       </c>
+      <c r="T88">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>840</v>
       </c>
@@ -8886,8 +10777,12 @@
       <c r="S89" t="s">
         <v>847</v>
       </c>
+      <c r="T89">
+        <f>P89*$Y$2</f>
+        <v>73</v>
+      </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>848</v>
       </c>
@@ -8945,8 +10840,12 @@
       <c r="S90" t="s">
         <v>54</v>
       </c>
+      <c r="T90">
+        <f t="shared" ref="T90:T101" si="2">P90*$Y$2</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>856</v>
       </c>
@@ -9004,8 +10903,12 @@
       <c r="S91" t="s">
         <v>867</v>
       </c>
+      <c r="T91">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>868</v>
       </c>
@@ -9063,8 +10966,12 @@
       <c r="S92" t="s">
         <v>878</v>
       </c>
+      <c r="T92">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>879</v>
       </c>
@@ -9122,8 +11029,12 @@
       <c r="S93" t="s">
         <v>888</v>
       </c>
+      <c r="T93">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>889</v>
       </c>
@@ -9181,8 +11092,12 @@
       <c r="S94" t="s">
         <v>898</v>
       </c>
+      <c r="T94">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>899</v>
       </c>
@@ -9240,8 +11155,12 @@
       <c r="S95" t="s">
         <v>54</v>
       </c>
+      <c r="T95" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>906</v>
       </c>
@@ -9299,8 +11218,12 @@
       <c r="S96" t="s">
         <v>54</v>
       </c>
+      <c r="T96" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -9358,8 +11281,12 @@
       <c r="S97" t="s">
         <v>54</v>
       </c>
+      <c r="T97">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>921</v>
       </c>
@@ -9417,8 +11344,12 @@
       <c r="S98" t="s">
         <v>931</v>
       </c>
+      <c r="T98">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>932</v>
       </c>
@@ -9476,8 +11407,12 @@
       <c r="S99" t="s">
         <v>940</v>
       </c>
+      <c r="T99">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>941</v>
       </c>
@@ -9535,8 +11470,12 @@
       <c r="S100" t="s">
         <v>949</v>
       </c>
+      <c r="T100">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>950</v>
       </c>
@@ -9593,9 +11532,15 @@
       </c>
       <c r="S101" t="s">
         <v>961</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>